--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.901630323954041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19.2037717697732</v>
+        <v>19.20377176977319</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.18137612180171</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2522299716822677</v>
+        <v>-0.1766757614697887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.900659240298866</v>
+        <v>4.065360449324674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.37901513853272</v>
+        <v>15.26021202445681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3000552172391517</v>
+        <v>0.4510280890807691</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.600038021072597</v>
+        <v>1.973881442370006</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.892146785978371</v>
+        <v>9.763332266685458</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8396201785163667</v>
+        <v>1.031946461920656</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.030108033005278</v>
+        <v>3.945817094337809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.72036412017335</v>
+        <v>13.53089705593657</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.395132024279992</v>
+        <v>5.796665745049996</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.980881059158483</v>
+        <v>10.53218103660163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.33025247909345</v>
+        <v>23.09852116403994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.272733709198588</v>
+        <v>6.063450343141632</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.19186328947489</v>
+        <v>8.243175245244833</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.67078385566915</v>
+        <v>15.57989190892159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.968350481269106</v>
+        <v>5.008613926627422</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.374328337431455</v>
+        <v>8.29225056812434</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.6590805082399</v>
+        <v>18.29595229877837</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.254733598633203</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.491293582675335</v>
+        <v>3.491293582675334</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4478237298203758</v>
@@ -760,7 +760,7 @@
         <v>0.7128168642450783</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.79564849501792</v>
+        <v>1.795648495017921</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4717406280394443</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.02202578974409055</v>
+        <v>-0.03786914964750555</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5293188058602267</v>
+        <v>0.5710410546014787</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>2.155387832993018</v>
+        <v>2.182836916096333</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0308871949842027</v>
+        <v>0.04729520426187658</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1726617384712096</v>
+        <v>0.2330728087375315</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.094174149489744</v>
+        <v>1.07955946803104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1197552308040184</v>
+        <v>0.1233136888297184</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5441450092642754</v>
+        <v>0.5296982998225357</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.871516089065947</v>
+        <v>1.801869342259348</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.242037811375261</v>
+        <v>1.288742008286331</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.296690701358706</v>
+        <v>2.395324391344324</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.324336220827853</v>
+        <v>5.326345383294356</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.079088016524604</v>
+        <v>1.052788980747877</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.356202222868613</v>
+        <v>1.397682547218188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.812346448793192</v>
+        <v>2.68831092956056</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9380699957304126</v>
+        <v>0.9414550107596813</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.569918897839877</v>
+        <v>1.528348290910062</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.56383262903229</v>
+        <v>3.43588988086602</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7359377924831709</v>
+        <v>-0.6822385921927029</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.341457265898982</v>
+        <v>2.404416223773538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.861030600596759</v>
+        <v>8.297596401061881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.191239106924902</v>
+        <v>-3.156799807507401</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.585811940213668</v>
+        <v>-0.5696854012656093</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.38211017178855</v>
+        <v>5.170781090893587</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.287367791270463</v>
+        <v>-1.193149491046875</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.679675156862324</v>
+        <v>1.490210554059048</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.284922561803849</v>
+        <v>7.292158951800119</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.742802489496249</v>
+        <v>3.864133094167194</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.421590135791561</v>
+        <v>7.333473230379966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.78970853654251</v>
+        <v>13.82820667710072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.692579994984924</v>
+        <v>1.738768792315982</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.724258817149261</v>
+        <v>4.544497423064948</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.08713362814956</v>
+        <v>10.11635047156084</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.119527939833109</v>
+        <v>2.279723727493101</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.16263319801017</v>
+        <v>5.255229384834955</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.13729237280036</v>
+        <v>11.1263265966692</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.8269262491993119</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.89108680243542</v>
+        <v>1.891086802435419</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.07672951046702921</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.111721456854232</v>
+        <v>-0.09782768524688887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3334379619877692</v>
+        <v>0.3474094800079675</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.07809283174398</v>
+        <v>1.1771335983006</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3345421336773682</v>
+        <v>-0.3447869393180264</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07713979743919044</v>
+        <v>-0.06931732398019329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.577794918202568</v>
+        <v>0.5635714300575919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1715818660489207</v>
+        <v>-0.1603040143471837</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2117038003817971</v>
+        <v>0.190124822168649</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9419737428941288</v>
+        <v>0.9644554342249944</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8523249022513607</v>
+        <v>0.8378092869249827</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.62376825339069</v>
+        <v>1.582683096745205</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.958617810840924</v>
+        <v>2.990064086040068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2635008991082988</v>
+        <v>0.2672643876552844</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.706227827010717</v>
+        <v>0.6813062730240222</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.543697819207474</v>
+        <v>1.515020322590544</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3535488982401682</v>
+        <v>0.3736579923755268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8563072733010223</v>
+        <v>0.8712297076444866</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.887737871047083</v>
+        <v>1.881880477368761</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.671581798856486</v>
+        <v>-2.751321481195784</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.071933421263799</v>
+        <v>1.862848522924996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.790865410787426</v>
+        <v>5.77070242435163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.951191580640031</v>
+        <v>-4.83148049169778</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.711408399533516</v>
+        <v>-1.49539162078741</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.291277524835686</v>
+        <v>0.03581770333447672</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.827589532677247</v>
+        <v>-2.683300397235579</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.070623791782476</v>
+        <v>1.255785919096239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.767306087068561</v>
+        <v>3.869915119990972</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.436482555678329</v>
+        <v>3.238211868337014</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.71449357087681</v>
+        <v>8.646141042495957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.01622296069656</v>
+        <v>13.42255086046605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.372617742671655</v>
+        <v>1.526926680680838</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.290333116883467</v>
+        <v>5.439407676838738</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.514645960754716</v>
+        <v>6.324064524668374</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.637335999035506</v>
+        <v>1.720340927734396</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.095598799208127</v>
+        <v>6.217509109577947</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.721691642680387</v>
+        <v>8.587671324025763</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2938605551340985</v>
+        <v>-0.2941714409234211</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2122998591014066</v>
+        <v>0.1932837291484577</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6271931010059109</v>
+        <v>0.6201161142638191</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.411189209395152</v>
+        <v>-0.4010908288436038</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1382802611761374</v>
+        <v>-0.124044865942321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02000692773194437</v>
+        <v>0.003448032472099877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2761986829363292</v>
+        <v>-0.2629055840114659</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09786858789988927</v>
+        <v>0.1180190636199574</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3529306125135802</v>
+        <v>0.3889254495671454</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5547314593162649</v>
+        <v>0.5416741203493071</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.414182662890468</v>
+        <v>1.42542096858798</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.156303512146764</v>
+        <v>2.157035025148458</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1573246891443963</v>
+        <v>0.193695006919808</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5909530524054454</v>
+        <v>0.6407286596908142</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7698332972272628</v>
+        <v>0.7351940655937564</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2073021439099983</v>
+        <v>0.2163935544190287</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7739902677699634</v>
+        <v>0.7986258676720513</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.072671435576946</v>
+        <v>1.105082360987315</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.058366818089144</v>
+        <v>-3.156831273549365</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.693092056552865</v>
+        <v>1.292716304367473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.097947636791575</v>
+        <v>4.01570343688269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7591272383118898</v>
+        <v>0.8278353173988627</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.217046415608958</v>
+        <v>5.124533267450139</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.14848736302401</v>
+        <v>8.404389862468605</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1933117300509823</v>
+        <v>-0.3419914677566608</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.340908138487413</v>
+        <v>4.418160457298965</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.168001632479914</v>
+        <v>7.318256166931553</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.367320857850233</v>
+        <v>2.488666606271895</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.717894097529704</v>
+        <v>7.489854805022935</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.4495266091461</v>
+        <v>10.49694899623534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.578757938582185</v>
+        <v>6.32122592202841</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.28549018492527</v>
+        <v>11.39589031699748</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.82987141868248</v>
+        <v>13.83062066730379</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.919226580071765</v>
+        <v>3.61216168262368</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.722292773992637</v>
+        <v>8.689517055271578</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.27222478944191</v>
+        <v>11.32762999464561</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2805553775108285</v>
+        <v>-0.2863076992957403</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.144112152241079</v>
+        <v>0.1020246553534048</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3558454748479351</v>
+        <v>0.3493560101273164</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06389468900318855</v>
+        <v>0.07040866603846475</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4904666466537678</v>
+        <v>0.4694312991452647</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7372502093505994</v>
+        <v>0.7575616494271473</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01335570382470362</v>
+        <v>-0.03256352445703828</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3928783967462576</v>
+        <v>0.4048925859003384</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6535719757448404</v>
+        <v>0.674843086882839</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2721331391454146</v>
+        <v>0.290101520336407</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9402376880892418</v>
+        <v>0.8374233250504901</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.171879350146603</v>
+        <v>1.211934324905017</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7852743229578111</v>
+        <v>0.7610704758673591</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.364599314309585</v>
+        <v>1.379984282205759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.712769281810003</v>
+        <v>1.741658205138414</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4611099108709102</v>
+        <v>0.4061231361428554</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9829304961074437</v>
+        <v>0.9847240848881286</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.282407131024088</v>
+        <v>1.293178970981296</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.439951483770997</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.832065074732844</v>
+        <v>8.832065074732846</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.115368339107167</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4003401353318584</v>
+        <v>-0.4079665639332028</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.789567194492561</v>
+        <v>3.582930778939242</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.40274138465074</v>
+        <v>9.56226842979115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2017246266650643</v>
+        <v>-0.285410737352122</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.011568947414891</v>
+        <v>2.808038056161642</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.473691759879644</v>
+        <v>7.53332632681179</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1810142752272066</v>
+        <v>0.08165626941111016</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.785790906914647</v>
+        <v>3.816387334853413</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.927470927744743</v>
+        <v>8.825998930257956</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.366852441037628</v>
+        <v>2.295344873841336</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.742225833606397</v>
+        <v>6.803994552905565</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.62680059802546</v>
+        <v>12.68043106116873</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.648127876332377</v>
+        <v>2.666421660540656</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.034245754996487</v>
+        <v>5.849197368477018</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.3347454762485</v>
+        <v>10.16833464503993</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.121541445780237</v>
+        <v>2.055259919074728</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.94991556272755</v>
+        <v>5.885517783877736</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.98414989464067</v>
+        <v>11.06771227075894</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0477854753956248</v>
+        <v>-0.05150054514628005</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4762235899238528</v>
+        <v>0.4336911143612759</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.173540846580719</v>
+        <v>1.18314172233922</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02118587609103317</v>
+        <v>-0.03115042803087355</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3167430430911769</v>
+        <v>0.3010416557366862</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7727345123215453</v>
+        <v>0.7841984353867038</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02229655291852398</v>
+        <v>0.01005257710961705</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4490323823856218</v>
+        <v>0.4427340503059742</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.049436650889525</v>
+        <v>1.034985848453721</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3604832033251414</v>
+        <v>0.3518964059404102</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.016428505558374</v>
+        <v>1.001082833925071</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.953418770762269</v>
+        <v>1.911690546978175</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3337829395263246</v>
+        <v>0.3245016440425714</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7392110240092646</v>
+        <v>0.7350105911048882</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.282792795816317</v>
+        <v>1.27140930291537</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2904236107158232</v>
+        <v>0.2720504561368557</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7951439014442325</v>
+        <v>0.785851522047287</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.459417455879668</v>
+        <v>1.461837575897791</v>
       </c>
     </row>
     <row r="34">
